--- a/02_办公自动化/openpyxl/test.xlsx
+++ b/02_办公自动化/openpyxl/test.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -415,12 +421,21 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>